--- a/ProyectoFinal/05 Poblacion/asesor.xlsx
+++ b/ProyectoFinal/05 Poblacion/asesor.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="258">
   <si>
     <t>idempleado</t>
   </si>
@@ -39,15 +39,9 @@
     <t>aMaterno</t>
   </si>
   <si>
-    <t>fIngreso</t>
-  </si>
-  <si>
     <t>sueldo</t>
   </si>
   <si>
-    <t>01/27/1994</t>
-  </si>
-  <si>
     <t>Carola</t>
   </si>
   <si>
@@ -57,12 +51,6 @@
     <t>Benedtti</t>
   </si>
   <si>
-    <t>2/26/2008</t>
-  </si>
-  <si>
-    <t>12/16/1989</t>
-  </si>
-  <si>
     <t>Sharity</t>
   </si>
   <si>
@@ -72,9 +60,6 @@
     <t>Bugdall</t>
   </si>
   <si>
-    <t>10/17/2015</t>
-  </si>
-  <si>
     <t>Geoffrey</t>
   </si>
   <si>
@@ -84,9 +69,6 @@
     <t>Shobrook</t>
   </si>
   <si>
-    <t>9/30/2002</t>
-  </si>
-  <si>
     <t>Culver</t>
   </si>
   <si>
@@ -96,12 +78,6 @@
     <t>Sapsed</t>
   </si>
   <si>
-    <t>9/16/2012</t>
-  </si>
-  <si>
-    <t>01/16/1986</t>
-  </si>
-  <si>
     <t>Mirna</t>
   </si>
   <si>
@@ -111,12 +87,6 @@
     <t>Acton</t>
   </si>
   <si>
-    <t>1/18/2008</t>
-  </si>
-  <si>
-    <t>07/18/1982</t>
-  </si>
-  <si>
     <t>Whitney</t>
   </si>
   <si>
@@ -126,9 +96,6 @@
     <t>Olley</t>
   </si>
   <si>
-    <t>09/16/1994</t>
-  </si>
-  <si>
     <t>Faustina</t>
   </si>
   <si>
@@ -138,12 +105,6 @@
     <t>Haldin</t>
   </si>
   <si>
-    <t>10/20/2007</t>
-  </si>
-  <si>
-    <t>06/13/1995</t>
-  </si>
-  <si>
     <t>Jody</t>
   </si>
   <si>
@@ -153,12 +114,6 @@
     <t>Fyrth</t>
   </si>
   <si>
-    <t>7/15/2011</t>
-  </si>
-  <si>
-    <t>07/13/1993</t>
-  </si>
-  <si>
     <t>Dianemarie</t>
   </si>
   <si>
@@ -168,12 +123,6 @@
     <t>Paffot</t>
   </si>
   <si>
-    <t>11/21/2012</t>
-  </si>
-  <si>
-    <t>11/26/1991</t>
-  </si>
-  <si>
     <t>Joni</t>
   </si>
   <si>
@@ -183,12 +132,6 @@
     <t>Bacher</t>
   </si>
   <si>
-    <t>7/25/2017</t>
-  </si>
-  <si>
-    <t>12/14/1981</t>
-  </si>
-  <si>
     <t>Brodie</t>
   </si>
   <si>
@@ -198,12 +141,6 @@
     <t>Biddleston</t>
   </si>
   <si>
-    <t>4/26/2009</t>
-  </si>
-  <si>
-    <t>01/23/1986</t>
-  </si>
-  <si>
     <t>Robin</t>
   </si>
   <si>
@@ -213,12 +150,6 @@
     <t>Tidy</t>
   </si>
   <si>
-    <t>3/29/2009</t>
-  </si>
-  <si>
-    <t>07/31/1988</t>
-  </si>
-  <si>
     <t>Tamra</t>
   </si>
   <si>
@@ -228,9 +159,6 @@
     <t>Carbery</t>
   </si>
   <si>
-    <t>08/23/1987</t>
-  </si>
-  <si>
     <t>Sandro</t>
   </si>
   <si>
@@ -240,12 +168,6 @@
     <t>Jerratsch</t>
   </si>
   <si>
-    <t>11/27/2010</t>
-  </si>
-  <si>
-    <t>01/25/1992</t>
-  </si>
-  <si>
     <t>Geralda</t>
   </si>
   <si>
@@ -264,9 +186,6 @@
     <t>Blacklawe</t>
   </si>
   <si>
-    <t>12/24/2007</t>
-  </si>
-  <si>
     <t>Cristine</t>
   </si>
   <si>
@@ -276,12 +195,6 @@
     <t>Burrel</t>
   </si>
   <si>
-    <t>1/24/2011</t>
-  </si>
-  <si>
-    <t>03/23/1998</t>
-  </si>
-  <si>
     <t>Abbie</t>
   </si>
   <si>
@@ -291,9 +204,6 @@
     <t>Wisbey</t>
   </si>
   <si>
-    <t>06/28/1987</t>
-  </si>
-  <si>
     <t>Artemas</t>
   </si>
   <si>
@@ -303,12 +213,6 @@
     <t>Pickerin</t>
   </si>
   <si>
-    <t>1/22/2007</t>
-  </si>
-  <si>
-    <t>07/23/1992</t>
-  </si>
-  <si>
     <t>Jermaine</t>
   </si>
   <si>
@@ -327,9 +231,6 @@
     <t>Birdwistle</t>
   </si>
   <si>
-    <t>4/26/2007</t>
-  </si>
-  <si>
     <t>Tamar</t>
   </si>
   <si>
@@ -339,9 +240,6 @@
     <t>Mc Ilwrick</t>
   </si>
   <si>
-    <t>01/28/1994</t>
-  </si>
-  <si>
     <t>Flora</t>
   </si>
   <si>
@@ -351,12 +249,6 @@
     <t>Bartoszewski</t>
   </si>
   <si>
-    <t>2/16/2004</t>
-  </si>
-  <si>
-    <t>04/13/1996</t>
-  </si>
-  <si>
     <t>Clarance</t>
   </si>
   <si>
@@ -366,12 +258,6 @@
     <t>Baldetti</t>
   </si>
   <si>
-    <t>5/19/2004</t>
-  </si>
-  <si>
-    <t>02/13/1984</t>
-  </si>
-  <si>
     <t>Mellicent</t>
   </si>
   <si>
@@ -390,12 +276,6 @@
     <t>Gutherson</t>
   </si>
   <si>
-    <t>6/22/2011</t>
-  </si>
-  <si>
-    <t>01/24/1994</t>
-  </si>
-  <si>
     <t>Fletch</t>
   </si>
   <si>
@@ -423,9 +303,6 @@
     <t>Conrad</t>
   </si>
   <si>
-    <t>12/13/2002</t>
-  </si>
-  <si>
     <t>Rowland</t>
   </si>
   <si>
@@ -435,9 +312,6 @@
     <t>McCotter</t>
   </si>
   <si>
-    <t>1/29/2002</t>
-  </si>
-  <si>
     <t>Darb</t>
   </si>
   <si>
@@ -456,12 +330,6 @@
     <t>Hritzko</t>
   </si>
   <si>
-    <t>2/27/2001</t>
-  </si>
-  <si>
-    <t>01/21/1993</t>
-  </si>
-  <si>
     <t>Jedd</t>
   </si>
   <si>
@@ -471,9 +339,6 @@
     <t>Esslemont</t>
   </si>
   <si>
-    <t>12/27/1997</t>
-  </si>
-  <si>
     <t>Lothario</t>
   </si>
   <si>
@@ -483,12 +348,6 @@
     <t>MacClure</t>
   </si>
   <si>
-    <t>5/30/2005</t>
-  </si>
-  <si>
-    <t>01/24/1981</t>
-  </si>
-  <si>
     <t>Jacinthe</t>
   </si>
   <si>
@@ -498,9 +357,6 @@
     <t>Laweles</t>
   </si>
   <si>
-    <t>05/29/1990</t>
-  </si>
-  <si>
     <t>Ingaberg</t>
   </si>
   <si>
@@ -510,12 +366,6 @@
     <t>Seres</t>
   </si>
   <si>
-    <t>2/17/2009</t>
-  </si>
-  <si>
-    <t>05/13/1990</t>
-  </si>
-  <si>
     <t>Izaak</t>
   </si>
   <si>
@@ -543,9 +393,6 @@
     <t>Rudeforth</t>
   </si>
   <si>
-    <t>06/30/1996</t>
-  </si>
-  <si>
     <t>June</t>
   </si>
   <si>
@@ -555,9 +402,6 @@
     <t>Bocke</t>
   </si>
   <si>
-    <t>6/23/2005</t>
-  </si>
-  <si>
     <t>Kylynn</t>
   </si>
   <si>
@@ -567,9 +411,6 @@
     <t>Malamore</t>
   </si>
   <si>
-    <t>12/13/2018</t>
-  </si>
-  <si>
     <t>Reggi</t>
   </si>
   <si>
@@ -579,9 +420,6 @@
     <t>Takos</t>
   </si>
   <si>
-    <t>10/20/1985</t>
-  </si>
-  <si>
     <t>Lidia</t>
   </si>
   <si>
@@ -591,12 +429,6 @@
     <t>Wilflinger</t>
   </si>
   <si>
-    <t>7/13/2005</t>
-  </si>
-  <si>
-    <t>07/23/1987</t>
-  </si>
-  <si>
     <t>Zebadiah</t>
   </si>
   <si>
@@ -606,9 +438,6 @@
     <t>Baulch</t>
   </si>
   <si>
-    <t>1/18/2005</t>
-  </si>
-  <si>
     <t>Averell</t>
   </si>
   <si>
@@ -618,9 +447,6 @@
     <t>Gawke</t>
   </si>
   <si>
-    <t>10/28/1986</t>
-  </si>
-  <si>
     <t>Amby</t>
   </si>
   <si>
@@ -639,12 +465,6 @@
     <t>Slateford</t>
   </si>
   <si>
-    <t>8/20/2018</t>
-  </si>
-  <si>
-    <t>01/31/1995</t>
-  </si>
-  <si>
     <t>Callean</t>
   </si>
   <si>
@@ -663,9 +483,6 @@
     <t>Gouldthorpe</t>
   </si>
   <si>
-    <t>5/26/2013</t>
-  </si>
-  <si>
     <t>Pearce</t>
   </si>
   <si>
@@ -675,14 +492,314 @@
     <t>Boner</t>
   </si>
   <si>
-    <t>5/24/2019</t>
+    <t>1965-12-08</t>
+  </si>
+  <si>
+    <t>1980-10-04</t>
+  </si>
+  <si>
+    <t>1969-11-06</t>
+  </si>
+  <si>
+    <t>1973-07-31</t>
+  </si>
+  <si>
+    <t>1955-12-19</t>
+  </si>
+  <si>
+    <t>1969-06-09</t>
+  </si>
+  <si>
+    <t>1993-07-04</t>
+  </si>
+  <si>
+    <t>1964-06-20</t>
+  </si>
+  <si>
+    <t>1958-02-08</t>
+  </si>
+  <si>
+    <t>1985-04-11</t>
+  </si>
+  <si>
+    <t>1992-12-08</t>
+  </si>
+  <si>
+    <t>1986-10-11</t>
+  </si>
+  <si>
+    <t>1966-06-07</t>
+  </si>
+  <si>
+    <t>1983-05-25</t>
+  </si>
+  <si>
+    <t>1976-11-22</t>
+  </si>
+  <si>
+    <t>1996-01-06</t>
+  </si>
+  <si>
+    <t>1963-04-12</t>
+  </si>
+  <si>
+    <t>1960-01-09</t>
+  </si>
+  <si>
+    <t>1980-01-15</t>
+  </si>
+  <si>
+    <t>1983-12-24</t>
+  </si>
+  <si>
+    <t>1953-12-04</t>
+  </si>
+  <si>
+    <t>1984-12-29</t>
+  </si>
+  <si>
+    <t>1953-05-05</t>
+  </si>
+  <si>
+    <t>1991-08-30</t>
+  </si>
+  <si>
+    <t>1961-05-19</t>
+  </si>
+  <si>
+    <t>1991-10-30</t>
+  </si>
+  <si>
+    <t>1990-01-20</t>
+  </si>
+  <si>
+    <t>1978-11-13</t>
+  </si>
+  <si>
+    <t>1987-02-12</t>
+  </si>
+  <si>
+    <t>1970-11-19</t>
+  </si>
+  <si>
+    <t>1997-04-21</t>
+  </si>
+  <si>
+    <t>1957-03-31</t>
+  </si>
+  <si>
+    <t>1950-11-06</t>
+  </si>
+  <si>
+    <t>1951-05-08</t>
+  </si>
+  <si>
+    <t>1957-08-22</t>
+  </si>
+  <si>
+    <t>1962-07-19</t>
+  </si>
+  <si>
+    <t>1953-04-15</t>
+  </si>
+  <si>
+    <t>1959-07-07</t>
+  </si>
+  <si>
+    <t>1963-06-07</t>
+  </si>
+  <si>
+    <t>1960-02-18</t>
+  </si>
+  <si>
+    <t>1996-04-27</t>
+  </si>
+  <si>
+    <t>1952-01-02</t>
+  </si>
+  <si>
+    <t>1964-02-11</t>
+  </si>
+  <si>
+    <t>1985-02-22</t>
+  </si>
+  <si>
+    <t>1971-01-22</t>
+  </si>
+  <si>
+    <t>1984-04-09</t>
+  </si>
+  <si>
+    <t>1979-03-06</t>
+  </si>
+  <si>
+    <t>1989-11-21</t>
+  </si>
+  <si>
+    <t>1974-06-30</t>
+  </si>
+  <si>
+    <t>1991-02-17</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>2018-12-15</t>
+  </si>
+  <si>
+    <t>2015-07-11</t>
+  </si>
+  <si>
+    <t>2010-01-03</t>
+  </si>
+  <si>
+    <t>2013-07-14</t>
+  </si>
+  <si>
+    <t>2010-01-15</t>
+  </si>
+  <si>
+    <t>2009-05-08</t>
+  </si>
+  <si>
+    <t>2008-03-31</t>
+  </si>
+  <si>
+    <t>2018-08-26</t>
+  </si>
+  <si>
+    <t>2011-11-04</t>
+  </si>
+  <si>
+    <t>2006-06-22</t>
+  </si>
+  <si>
+    <t>2018-10-21</t>
+  </si>
+  <si>
+    <t>2018-01-17</t>
+  </si>
+  <si>
+    <t>2012-10-24</t>
+  </si>
+  <si>
+    <t>2014-11-08</t>
+  </si>
+  <si>
+    <t>2013-04-14</t>
+  </si>
+  <si>
+    <t>2012-09-23</t>
+  </si>
+  <si>
+    <t>2009-05-14</t>
+  </si>
+  <si>
+    <t>2015-06-28</t>
+  </si>
+  <si>
+    <t>2005-12-18</t>
+  </si>
+  <si>
+    <t>2018-12-10</t>
+  </si>
+  <si>
+    <t>2008-06-16</t>
+  </si>
+  <si>
+    <t>2006-11-17</t>
+  </si>
+  <si>
+    <t>2010-03-08</t>
+  </si>
+  <si>
+    <t>2006-05-08</t>
+  </si>
+  <si>
+    <t>2017-07-14</t>
+  </si>
+  <si>
+    <t>2014-12-27</t>
+  </si>
+  <si>
+    <t>2007-08-10</t>
+  </si>
+  <si>
+    <t>2005-07-26</t>
+  </si>
+  <si>
+    <t>2018-03-26</t>
+  </si>
+  <si>
+    <t>2008-10-05</t>
+  </si>
+  <si>
+    <t>2013-08-18</t>
+  </si>
+  <si>
+    <t>2018-04-21</t>
+  </si>
+  <si>
+    <t>2010-08-03</t>
+  </si>
+  <si>
+    <t>2007-09-08</t>
+  </si>
+  <si>
+    <t>2018-07-14</t>
+  </si>
+  <si>
+    <t>2009-02-11</t>
+  </si>
+  <si>
+    <t>2019-05-06</t>
+  </si>
+  <si>
+    <t>2010-03-18</t>
+  </si>
+  <si>
+    <t>2018-11-24</t>
+  </si>
+  <si>
+    <t>2017-07-12</t>
+  </si>
+  <si>
+    <t>2011-07-29</t>
+  </si>
+  <si>
+    <t>2019-03-23</t>
+  </si>
+  <si>
+    <t>2011-05-05</t>
+  </si>
+  <si>
+    <t>2005-12-06</t>
+  </si>
+  <si>
+    <t>2006-06-13</t>
+  </si>
+  <si>
+    <t>2013-09-01</t>
+  </si>
+  <si>
+    <t>2012-01-23</t>
+  </si>
+  <si>
+    <t>2005-10-20</t>
+  </si>
+  <si>
+    <t>2005-11-24</t>
+  </si>
+  <si>
+    <t>2014-05-15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -817,6 +934,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1115,7 +1237,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1158,17 +1280,20 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1206,6 +1331,7 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="42"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -1491,13 +1617,13 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="19.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="2" customWidth="1"/>
     <col min="4" max="6" width="9.140625" style="1"/>
     <col min="7" max="7" width="21.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="1"/>
@@ -1510,7 +1636,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1523,10 +1649,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1536,20 +1662,20 @@
       <c r="B2" s="1">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
+      <c r="G2" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="H2" s="1">
         <v>13120</v>
@@ -1562,20 +1688,20 @@
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
+      <c r="C3" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="H3" s="1">
         <v>12231</v>
@@ -1588,20 +1714,20 @@
       <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="2">
-        <v>31755</v>
+      <c r="C4" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="H4" s="1">
         <v>21978</v>
@@ -1614,20 +1740,20 @@
       <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="2">
-        <v>36167</v>
+      <c r="C5" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="H5" s="1">
         <v>21577</v>
@@ -1640,20 +1766,20 @@
       <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>26</v>
+      <c r="C6" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="H6" s="1">
         <v>11218</v>
@@ -1666,20 +1792,20 @@
       <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>31</v>
+      <c r="C7" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="2">
-        <v>38326</v>
+        <v>24</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="H7" s="1">
         <v>20879</v>
@@ -1692,20 +1818,20 @@
       <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>35</v>
+      <c r="C8" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>214</v>
       </c>
       <c r="H8" s="1">
         <v>15143</v>
@@ -1718,20 +1844,20 @@
       <c r="B9" s="1">
         <v>6</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>40</v>
+      <c r="C9" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="H9" s="1">
         <v>7960</v>
@@ -1744,20 +1870,20 @@
       <c r="B10" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>45</v>
+      <c r="C10" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="H10" s="1">
         <v>8531</v>
@@ -1770,20 +1896,20 @@
       <c r="B11" s="1">
         <v>5</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>50</v>
+      <c r="C11" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>54</v>
+        <v>36</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="H11" s="1">
         <v>14235</v>
@@ -1796,20 +1922,20 @@
       <c r="B12" s="1">
         <v>6</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>55</v>
+      <c r="C12" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>59</v>
+        <v>39</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>218</v>
       </c>
       <c r="H12" s="1">
         <v>12114</v>
@@ -1822,20 +1948,20 @@
       <c r="B13" s="1">
         <v>6</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>60</v>
+      <c r="C13" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="H13" s="1">
         <v>18833</v>
@@ -1848,20 +1974,20 @@
       <c r="B14" s="1">
         <v>4</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>65</v>
+      <c r="C14" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="2">
-        <v>39330</v>
+        <v>45</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>220</v>
       </c>
       <c r="H14" s="1">
         <v>21019</v>
@@ -1874,20 +2000,20 @@
       <c r="B15" s="1">
         <v>6</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>69</v>
+      <c r="C15" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>73</v>
+        <v>48</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>221</v>
       </c>
       <c r="H15" s="1">
         <v>6710</v>
@@ -1900,20 +2026,20 @@
       <c r="B16" s="1">
         <v>3</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>74</v>
+      <c r="C16" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="2">
-        <v>43285</v>
+        <v>51</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="H16" s="1">
         <v>20710</v>
@@ -1926,20 +2052,20 @@
       <c r="B17" s="1">
         <v>2</v>
       </c>
-      <c r="C17" s="2">
-        <v>30931</v>
+      <c r="C17" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>81</v>
+        <v>54</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="H17" s="1">
         <v>14284</v>
@@ -1952,20 +2078,20 @@
       <c r="B18" s="1">
         <v>2</v>
       </c>
-      <c r="C18" s="2">
-        <v>35373</v>
+      <c r="C18" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>85</v>
+        <v>57</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>224</v>
       </c>
       <c r="H18" s="1">
         <v>17052</v>
@@ -1978,20 +2104,20 @@
       <c r="B19" s="1">
         <v>5</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>86</v>
+      <c r="C19" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="2">
-        <v>38236</v>
+        <v>60</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>225</v>
       </c>
       <c r="H19" s="1">
         <v>16420</v>
@@ -2004,20 +2130,20 @@
       <c r="B20" s="1">
         <v>5</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>90</v>
+      <c r="C20" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>94</v>
+        <v>63</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>226</v>
       </c>
       <c r="H20" s="1">
         <v>8144</v>
@@ -2030,20 +2156,20 @@
       <c r="B21" s="1">
         <v>2</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>95</v>
+      <c r="C21" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G21" s="2">
-        <v>36932</v>
+        <v>66</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="H21" s="1">
         <v>23069</v>
@@ -2056,20 +2182,20 @@
       <c r="B22" s="1">
         <v>2</v>
       </c>
-      <c r="C22" s="2">
-        <v>34251</v>
+      <c r="C22" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>102</v>
+        <v>69</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="H22" s="1">
         <v>22849</v>
@@ -2082,20 +2208,20 @@
       <c r="B23" s="1">
         <v>6</v>
       </c>
-      <c r="C23" s="2">
-        <v>30662</v>
+      <c r="C23" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G23" s="2">
-        <v>40306</v>
+        <v>72</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>229</v>
       </c>
       <c r="H23" s="1">
         <v>14094</v>
@@ -2108,20 +2234,20 @@
       <c r="B24" s="1">
         <v>6</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>106</v>
+      <c r="C24" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>110</v>
+        <v>75</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="H24" s="1">
         <v>13689</v>
@@ -2134,20 +2260,20 @@
       <c r="B25" s="1">
         <v>6</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>111</v>
+      <c r="C25" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>115</v>
+        <v>78</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="H25" s="1">
         <v>10133</v>
@@ -2160,20 +2286,20 @@
       <c r="B26" s="1">
         <v>4</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>116</v>
+      <c r="C26" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G26" s="2">
-        <v>43497</v>
+        <v>81</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>232</v>
       </c>
       <c r="H26" s="1">
         <v>19633</v>
@@ -2186,20 +2312,20 @@
       <c r="B27" s="1">
         <v>2</v>
       </c>
-      <c r="C27" s="2">
-        <v>35551</v>
+      <c r="C27" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>123</v>
+        <v>84</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="H27" s="1">
         <v>7770</v>
@@ -2212,20 +2338,20 @@
       <c r="B28" s="1">
         <v>2</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>124</v>
+      <c r="C28" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G28" s="2">
-        <v>38992</v>
+        <v>87</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="H28" s="1">
         <v>20033</v>
@@ -2238,20 +2364,20 @@
       <c r="B29" s="1">
         <v>4</v>
       </c>
-      <c r="C29" s="2">
-        <v>33879</v>
+      <c r="C29" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G29" s="2">
-        <v>40668</v>
+        <v>90</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="H29" s="1">
         <v>13368</v>
@@ -2264,20 +2390,20 @@
       <c r="B30" s="1">
         <v>6</v>
       </c>
-      <c r="C30" s="2">
-        <v>36413</v>
+      <c r="C30" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>134</v>
+        <v>93</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="H30" s="1">
         <v>15651</v>
@@ -2290,20 +2416,20 @@
       <c r="B31" s="1">
         <v>2</v>
       </c>
-      <c r="C31" s="2">
-        <v>31573</v>
+      <c r="C31" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>138</v>
+        <v>96</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="H31" s="1">
         <v>13632</v>
@@ -2316,20 +2442,20 @@
       <c r="B32" s="1">
         <v>1</v>
       </c>
-      <c r="C32" s="2">
-        <v>34274</v>
+      <c r="C32" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G32" s="2">
-        <v>41764</v>
+        <v>99</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>238</v>
       </c>
       <c r="H32" s="1">
         <v>11656</v>
@@ -2342,20 +2468,20 @@
       <c r="B33" s="1">
         <v>5</v>
       </c>
-      <c r="C33" s="2">
-        <v>35251</v>
+      <c r="C33" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>145</v>
+        <v>102</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="H33" s="1">
         <v>10838</v>
@@ -2368,20 +2494,20 @@
       <c r="B34" s="1">
         <v>4</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>146</v>
+      <c r="C34" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G34" s="2">
-        <v>41250</v>
+        <v>105</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>240</v>
       </c>
       <c r="H34" s="1">
         <v>10747</v>
@@ -2394,20 +2520,20 @@
       <c r="B35" s="1">
         <v>2</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>150</v>
+      <c r="C35" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>154</v>
+        <v>108</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>241</v>
       </c>
       <c r="H35" s="1">
         <v>7747</v>
@@ -2420,20 +2546,20 @@
       <c r="B36" s="1">
         <v>5</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>155</v>
+      <c r="C36" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G36" s="2">
-        <v>42279</v>
+        <v>111</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>242</v>
       </c>
       <c r="H36" s="1">
         <v>14926</v>
@@ -2446,20 +2572,20 @@
       <c r="B37" s="1">
         <v>2</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>159</v>
+      <c r="C37" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>163</v>
+        <v>114</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>243</v>
       </c>
       <c r="H37" s="1">
         <v>11155</v>
@@ -2472,20 +2598,20 @@
       <c r="B38" s="1">
         <v>3</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>164</v>
+      <c r="C38" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G38" s="2">
-        <v>38237</v>
+        <v>117</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H38" s="1">
         <v>17808</v>
@@ -2498,20 +2624,20 @@
       <c r="B39" s="1">
         <v>6</v>
       </c>
-      <c r="C39" s="2">
-        <v>36440</v>
+      <c r="C39" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>168</v>
+        <v>118</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G39" s="2">
-        <v>41214</v>
+        <v>120</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>245</v>
       </c>
       <c r="H39" s="1">
         <v>13558</v>
@@ -2524,20 +2650,20 @@
       <c r="B40" s="1">
         <v>2</v>
       </c>
-      <c r="C40" s="2">
-        <v>32026</v>
+      <c r="C40" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>172</v>
+        <v>122</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G40" s="2">
-        <v>39124</v>
+        <v>123</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>246</v>
       </c>
       <c r="H40" s="1">
         <v>15168</v>
@@ -2550,20 +2676,20 @@
       <c r="B41" s="1">
         <v>4</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>174</v>
+      <c r="C41" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>175</v>
+        <v>124</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>178</v>
+        <v>126</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="H41" s="1">
         <v>19166</v>
@@ -2576,20 +2702,20 @@
       <c r="B42" s="1">
         <v>5</v>
       </c>
-      <c r="C42" s="2">
-        <v>35679</v>
+      <c r="C42" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>179</v>
+        <v>127</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>182</v>
+        <v>129</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>248</v>
       </c>
       <c r="H42" s="1">
         <v>12415</v>
@@ -2602,20 +2728,20 @@
       <c r="B43" s="1">
         <v>4</v>
       </c>
-      <c r="C43" s="2">
-        <v>32941</v>
+      <c r="C43" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G43" s="2">
-        <v>40063</v>
+        <v>132</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="H43" s="1">
         <v>16046</v>
@@ -2628,20 +2754,20 @@
       <c r="B44" s="1">
         <v>3</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>186</v>
+      <c r="C44" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>190</v>
+        <v>135</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>250</v>
       </c>
       <c r="H44" s="1">
         <v>22624</v>
@@ -2654,20 +2780,20 @@
       <c r="B45" s="1">
         <v>4</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>191</v>
+      <c r="C45" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>192</v>
+        <v>136</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>195</v>
+        <v>138</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>251</v>
       </c>
       <c r="H45" s="1">
         <v>20089</v>
@@ -2680,20 +2806,20 @@
       <c r="B46" s="1">
         <v>3</v>
       </c>
-      <c r="C46" s="2">
-        <v>31757</v>
+      <c r="C46" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G46" s="2">
-        <v>41676</v>
+        <v>141</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>252</v>
       </c>
       <c r="H46" s="1">
         <v>20307</v>
@@ -2706,20 +2832,20 @@
       <c r="B47" s="1">
         <v>2</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>199</v>
+      <c r="C47" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>201</v>
+        <v>143</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G47" s="2">
-        <v>43199</v>
+        <v>144</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>253</v>
       </c>
       <c r="H47" s="1">
         <v>20862</v>
@@ -2732,20 +2858,20 @@
       <c r="B48" s="1">
         <v>2</v>
       </c>
-      <c r="C48" s="2">
-        <v>30843</v>
+      <c r="C48" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>206</v>
+        <v>147</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>254</v>
       </c>
       <c r="H48" s="1">
         <v>23396</v>
@@ -2758,20 +2884,20 @@
       <c r="B49" s="1">
         <v>2</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>207</v>
+      <c r="C49" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>208</v>
+        <v>148</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>209</v>
+        <v>149</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G49" s="2">
-        <v>42370</v>
+        <v>150</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>255</v>
       </c>
       <c r="H49" s="1">
         <v>22693</v>
@@ -2784,20 +2910,20 @@
       <c r="B50" s="1">
         <v>1</v>
       </c>
-      <c r="C50" s="2">
-        <v>35859</v>
+      <c r="C50" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>211</v>
+        <v>151</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>212</v>
+        <v>152</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>214</v>
+        <v>153</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="H50" s="1">
         <v>23718</v>
@@ -2810,20 +2936,20 @@
       <c r="B51" s="1">
         <v>6</v>
       </c>
-      <c r="C51" s="2">
-        <v>34005</v>
+      <c r="C51" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>215</v>
+        <v>154</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>216</v>
+        <v>155</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>218</v>
+        <v>156</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>257</v>
       </c>
       <c r="H51" s="1">
         <v>24654</v>
@@ -2831,5 +2957,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>